--- a/data/trans_bre/P20D2_R_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P20D2_R_2023-Provincia-trans_bre.xlsx
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>83.8056149116875</v>
+        <v>83.61852205286566</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
     </row>
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>-18.36324026126066</v>
+        <v>-18.36324026126067</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>-0.2424954675404148</v>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-51.0733590775188</v>
+        <v>-56.96664490108648</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6408925118089031</v>
+        <v>-0.6844461689370112</v>
       </c>
     </row>
     <row r="9">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>24.60551466726794</v>
+        <v>20.28090661586625</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4090077130422741</v>
+        <v>0.3567486972783476</v>
       </c>
     </row>
     <row r="10">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-92.14709318894221</v>
+        <v>-92.18600053818281</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>-1</v>
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-35.90264892065596</v>
+        <v>-35.33237621257688</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-0.4216102364380919</v>
+        <v>-0.4653030301491716</v>
       </c>
     </row>
     <row r="13">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-31.88882509833772</v>
+        <v>-31.88882509833773</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.3985497852979782</v>
+        <v>-0.3985497852979784</v>
       </c>
     </row>
     <row r="14">
@@ -702,10 +702,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-68.22957004284908</v>
+        <v>-72.82159808575669</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7921424798105062</v>
+        <v>-0.836190948636562</v>
       </c>
     </row>
     <row r="15">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.89234069009224</v>
+        <v>15.9256093130999</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4501334935967471</v>
+        <v>0.3101462464630615</v>
       </c>
     </row>
     <row r="16">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>44.07505101291044</v>
+        <v>36.56631371831049</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-62.12888874668544</v>
+        <v>-55.11134158957821</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7759514939452806</v>
+        <v>-0.7498838142768274</v>
       </c>
     </row>
     <row r="21">
@@ -804,10 +804,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>33.41032024778816</v>
+        <v>41.19063876166297</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.7564777641258549</v>
+        <v>0.9159821739834481</v>
       </c>
     </row>
     <row r="22">
@@ -836,10 +836,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-49.10281334250459</v>
+        <v>-48.00575306225079</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.6112016172571386</v>
+        <v>-0.6178687534959819</v>
       </c>
     </row>
     <row r="24">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.15708427391393</v>
+        <v>23.52604633377631</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.8134995261529775</v>
+        <v>0.725912872940519</v>
       </c>
     </row>
     <row r="25">
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>-42.35733899640505</v>
+        <v>-42.35733899640506</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.6038499343138025</v>
+        <v>-0.6038499343138026</v>
       </c>
     </row>
     <row r="26">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-78.79603550792483</v>
+        <v>-78.39950538570028</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>-1</v>
@@ -896,10 +896,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.55785406006716</v>
+        <v>8.709943049289947</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2237796133474767</v>
+        <v>0.2322324311489655</v>
       </c>
     </row>
     <row r="28">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-31.09355920023884</v>
+        <v>-31.09355920023885</v>
       </c>
       <c r="D28" s="6" t="n">
         <v>-0.43299870539004</v>
@@ -928,10 +928,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-46.27716417408939</v>
+        <v>-44.99937950378052</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>-0.6046898080060497</v>
+        <v>-0.5913017563305142</v>
       </c>
     </row>
     <row r="30">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-13.8771835829616</v>
+        <v>-11.74357051647178</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>-0.2106427779026729</v>
+        <v>-0.1731845288358201</v>
       </c>
     </row>
     <row r="31">
